--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Lgi1-Rtn4r.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Lgi1-Rtn4r.xlsx
@@ -540,10 +540,10 @@
         <v>0.007475</v>
       </c>
       <c r="I2">
-        <v>0.02766080269984236</v>
+        <v>0.1635273785303319</v>
       </c>
       <c r="J2">
-        <v>0.02766080269984236</v>
+        <v>0.1635273785303318</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -558,10 +558,10 @@
         <v>0.655614</v>
       </c>
       <c r="O2">
-        <v>0.8904290429042905</v>
+        <v>0.4715772180415435</v>
       </c>
       <c r="P2">
-        <v>0.8904290429042905</v>
+        <v>0.4715772180415434</v>
       </c>
       <c r="Q2">
         <v>0.0005445238500000001</v>
@@ -570,10 +570,10 @@
         <v>0.00490071465</v>
       </c>
       <c r="S2">
-        <v>0.02462998207398505</v>
+        <v>0.07711578624096033</v>
       </c>
       <c r="T2">
-        <v>0.02462998207398505</v>
+        <v>0.0771157862409603</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,10 +602,10 @@
         <v>0.007475</v>
       </c>
       <c r="I3">
-        <v>0.02766080269984236</v>
+        <v>0.1635273785303319</v>
       </c>
       <c r="J3">
-        <v>0.02766080269984236</v>
+        <v>0.1635273785303318</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -614,28 +614,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>0.026892</v>
+        <v>0.2448813333333333</v>
       </c>
       <c r="N3">
-        <v>0.080676</v>
+        <v>0.734644</v>
       </c>
       <c r="O3">
-        <v>0.1095709570957096</v>
+        <v>0.5284227819584566</v>
       </c>
       <c r="P3">
-        <v>0.1095709570957096</v>
+        <v>0.5284227819584566</v>
       </c>
       <c r="Q3">
-        <v>6.700589999999999E-05</v>
+        <v>0.0006101626555555555</v>
       </c>
       <c r="R3">
-        <v>0.0006030531</v>
+        <v>0.005491463899999999</v>
       </c>
       <c r="S3">
-        <v>0.003030820625857315</v>
+        <v>0.08641159228937155</v>
       </c>
       <c r="T3">
-        <v>0.003030820625857315</v>
+        <v>0.08641159228937154</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>20</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.08758766666666666</v>
+        <v>0.01274533333333334</v>
       </c>
       <c r="H4">
-        <v>0.262763</v>
+        <v>0.03823600000000001</v>
       </c>
       <c r="I4">
-        <v>0.9723391973001576</v>
+        <v>0.8364726214696682</v>
       </c>
       <c r="J4">
-        <v>0.9723391973001576</v>
+        <v>0.8364726214696681</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -682,22 +682,22 @@
         <v>0.655614</v>
       </c>
       <c r="O4">
-        <v>0.8904290429042905</v>
+        <v>0.4715772180415435</v>
       </c>
       <c r="P4">
-        <v>0.8904290429042905</v>
+        <v>0.4715772180415434</v>
       </c>
       <c r="Q4">
-        <v>0.019141233498</v>
+        <v>0.002785339656000001</v>
       </c>
       <c r="R4">
-        <v>0.172271101482</v>
+        <v>0.02506805690400001</v>
       </c>
       <c r="S4">
-        <v>0.8657990608303054</v>
+        <v>0.3944614318005831</v>
       </c>
       <c r="T4">
-        <v>0.8657990608303054</v>
+        <v>0.3944614318005831</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,22 +714,22 @@
         <v>24</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.08758766666666666</v>
+        <v>0.01274533333333334</v>
       </c>
       <c r="H5">
-        <v>0.262763</v>
+        <v>0.03823600000000001</v>
       </c>
       <c r="I5">
-        <v>0.9723391973001576</v>
+        <v>0.8364726214696682</v>
       </c>
       <c r="J5">
-        <v>0.9723391973001576</v>
+        <v>0.8364726214696681</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -738,28 +738,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.026892</v>
+        <v>0.2448813333333333</v>
       </c>
       <c r="N5">
-        <v>0.080676</v>
+        <v>0.734644</v>
       </c>
       <c r="O5">
-        <v>0.1095709570957096</v>
+        <v>0.5284227819584566</v>
       </c>
       <c r="P5">
-        <v>0.1095709570957096</v>
+        <v>0.5284227819584566</v>
       </c>
       <c r="Q5">
-        <v>0.002355407532</v>
+        <v>0.003121094220444445</v>
       </c>
       <c r="R5">
-        <v>0.021198667788</v>
+        <v>0.028089847984</v>
       </c>
       <c r="S5">
-        <v>0.1065401364698522</v>
+        <v>0.442011189669085</v>
       </c>
       <c r="T5">
-        <v>0.1065401364698522</v>
+        <v>0.442011189669085</v>
       </c>
     </row>
   </sheetData>
